--- a/earlywarning-pom/earlywarning-config/src/baf-instances/51_Workflow_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/51_Workflow_BE.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\WS CIB svil\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Action</t>
   </si>
@@ -312,11 +312,17 @@
   <si>
     <t>Update_Nightly_BE</t>
   </si>
+  <si>
+    <t>CIB</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_CIB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1635,6 +1641,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1650,7 +1704,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1693,7 +1747,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1741,7 +1795,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1789,7 +1843,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1837,7 +1891,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1851,6 +1905,246 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="8515350" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1890,7 +2184,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 7"/>
+        <xdr:cNvPr id="11" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1933,204 +2227,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 7"/>
+        <xdr:cNvPr id="12" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2178,7 +2280,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 7"/>
+        <xdr:cNvPr id="13" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2221,12 +2323,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 7"/>
+        <xdr:cNvPr id="14" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2274,7 +2376,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2317,7 +2419,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2365,7 +2467,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2413,7 +2515,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2461,7 +2563,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2475,6 +2577,198 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9448800" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10153650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="7524750"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="7524750"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2514,15 +2808,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10153650" cy="9525000"/>
+        <xdr:cNvPr id="10" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2562,7 +2856,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvPr id="11" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2605,156 +2899,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10782300" cy="7524750"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10782300" cy="7524750"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10782300" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 3"/>
+        <xdr:cNvPr id="12" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2802,7 +2952,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 3"/>
+        <xdr:cNvPr id="13" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2845,20 +2995,20 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10782300" cy="9525000"/>
+        <xdr:cNvPr id="14" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10868025" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3475,6 +3625,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3586,23 +3784,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3638,23 +3819,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3843,10 +4007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3964,12 +4128,26 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3982,10 +4160,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -4075,12 +4253,26 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/51_Workflow_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/51_Workflow_BE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\WS CIB svil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>Action</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>COUNTERPARTY_CIB</t>
+  </si>
+  <si>
+    <t>ISPRO</t>
+  </si>
+  <si>
+    <t>ISBA</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_ISPRO</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_ISBA</t>
   </si>
 </sst>
 </file>
@@ -1689,6 +1701,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1704,7 +1812,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1730,198 +1838,6 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="11420475" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8515350" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -1944,15 +1860,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
+        <xdr:cNvPr id="2" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1992,15 +1908,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
+        <xdr:cNvPr id="3" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2040,15 +1956,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
+        <xdr:cNvPr id="4" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11420475" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2088,15 +2004,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
+        <xdr:cNvPr id="5" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8515350" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2131,12 +2047,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 7"/>
+        <xdr:cNvPr id="6" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2179,12 +2095,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 7"/>
+        <xdr:cNvPr id="7" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2227,12 +2143,348 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2280,55 +2532,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 7"/>
+        <xdr:cNvPr id="16" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2376,7 +2580,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2419,7 +2623,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2467,7 +2671,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2515,7 +2719,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2563,7 +2767,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2611,7 +2815,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2659,7 +2863,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2707,7 +2911,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2755,7 +2959,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2803,7 +3007,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2851,7 +3055,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2899,7 +3103,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2913,6 +3117,150 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="10782300" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10868025" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10868025" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2952,55 +3300,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10782300" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 3"/>
+        <xdr:cNvPr id="16" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3673,6 +3973,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4007,10 +4403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -4142,12 +4538,40 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4160,10 +4584,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -4267,12 +4691,40 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
